--- a/data/actividad-06.xlsx
+++ b/data/actividad-06.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\777--Programacion repos\Una\r\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B36BE-2775-4923-9454-260DA09E8C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ECB5C5-35C4-4237-B329-D0DFD2B67C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435AB956-29CC-4570-BA60-E97588C2FD51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{435AB956-29CC-4570-BA60-E97588C2FD51}"/>
   </bookViews>
   <sheets>
     <sheet name="02" sheetId="1" r:id="rId1"/>
+    <sheet name="01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -25,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Año</t>
   </si>
   <si>
     <t>Producción</t>
+  </si>
+  <si>
+    <t>Yt</t>
   </si>
 </sst>
 </file>
@@ -384,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196179DB-8484-4AA3-B239-1654B38813EA}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -876,4 +880,931 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48A4B2A-0EF0-40F6-9454-7EB2DE53B89A}">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1872</v>
+      </c>
+      <c r="B2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1873</v>
+      </c>
+      <c r="B3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1874</v>
+      </c>
+      <c r="B4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1875</v>
+      </c>
+      <c r="B5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1876</v>
+      </c>
+      <c r="B6">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1877</v>
+      </c>
+      <c r="B7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1878</v>
+      </c>
+      <c r="B8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1879</v>
+      </c>
+      <c r="B9">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1880</v>
+      </c>
+      <c r="B10">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1881</v>
+      </c>
+      <c r="B11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1882</v>
+      </c>
+      <c r="B12">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1883</v>
+      </c>
+      <c r="B13">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1884</v>
+      </c>
+      <c r="B14">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1885</v>
+      </c>
+      <c r="B15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1886</v>
+      </c>
+      <c r="B16">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1887</v>
+      </c>
+      <c r="B17">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1888</v>
+      </c>
+      <c r="B18">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1889</v>
+      </c>
+      <c r="B19">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1890</v>
+      </c>
+      <c r="B20">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1891</v>
+      </c>
+      <c r="B21">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1892</v>
+      </c>
+      <c r="B22">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1893</v>
+      </c>
+      <c r="B23">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1894</v>
+      </c>
+      <c r="B24">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1895</v>
+      </c>
+      <c r="B25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1896</v>
+      </c>
+      <c r="B26">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1897</v>
+      </c>
+      <c r="B27">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1898</v>
+      </c>
+      <c r="B28">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1899</v>
+      </c>
+      <c r="B29">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1900</v>
+      </c>
+      <c r="B30">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1901</v>
+      </c>
+      <c r="B31">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1902</v>
+      </c>
+      <c r="B32">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1903</v>
+      </c>
+      <c r="B33">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1904</v>
+      </c>
+      <c r="B34">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1905</v>
+      </c>
+      <c r="B35">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1906</v>
+      </c>
+      <c r="B36">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1907</v>
+      </c>
+      <c r="B37">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1908</v>
+      </c>
+      <c r="B38">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1909</v>
+      </c>
+      <c r="B39">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1910</v>
+      </c>
+      <c r="B40">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1911</v>
+      </c>
+      <c r="B41">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1912</v>
+      </c>
+      <c r="B42">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1913</v>
+      </c>
+      <c r="B43">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1914</v>
+      </c>
+      <c r="B44">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1915</v>
+      </c>
+      <c r="B45">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1916</v>
+      </c>
+      <c r="B46">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1917</v>
+      </c>
+      <c r="B47">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1918</v>
+      </c>
+      <c r="B48">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1919</v>
+      </c>
+      <c r="B49">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1920</v>
+      </c>
+      <c r="B50">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1921</v>
+      </c>
+      <c r="B51">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1922</v>
+      </c>
+      <c r="B52">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1923</v>
+      </c>
+      <c r="B53">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1924</v>
+      </c>
+      <c r="B54">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1925</v>
+      </c>
+      <c r="B55">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1926</v>
+      </c>
+      <c r="B56">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1927</v>
+      </c>
+      <c r="B57">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1928</v>
+      </c>
+      <c r="B58">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1929</v>
+      </c>
+      <c r="B59">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1930</v>
+      </c>
+      <c r="B60">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1931</v>
+      </c>
+      <c r="B61">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1932</v>
+      </c>
+      <c r="B62">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1933</v>
+      </c>
+      <c r="B63">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1934</v>
+      </c>
+      <c r="B64">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1935</v>
+      </c>
+      <c r="B65">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1936</v>
+      </c>
+      <c r="B66">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1937</v>
+      </c>
+      <c r="B67">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1938</v>
+      </c>
+      <c r="B68">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1939</v>
+      </c>
+      <c r="B69">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1940</v>
+      </c>
+      <c r="B70">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1941</v>
+      </c>
+      <c r="B71">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1942</v>
+      </c>
+      <c r="B72">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1943</v>
+      </c>
+      <c r="B73">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1944</v>
+      </c>
+      <c r="B74">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1945</v>
+      </c>
+      <c r="B75">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1946</v>
+      </c>
+      <c r="B76">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1947</v>
+      </c>
+      <c r="B77">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1948</v>
+      </c>
+      <c r="B78">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1949</v>
+      </c>
+      <c r="B79">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1950</v>
+      </c>
+      <c r="B80">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1951</v>
+      </c>
+      <c r="B81">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1952</v>
+      </c>
+      <c r="B82">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1953</v>
+      </c>
+      <c r="B83">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1954</v>
+      </c>
+      <c r="B84">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1955</v>
+      </c>
+      <c r="B85">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1956</v>
+      </c>
+      <c r="B86">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1957</v>
+      </c>
+      <c r="B87">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1958</v>
+      </c>
+      <c r="B88">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1959</v>
+      </c>
+      <c r="B89">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1960</v>
+      </c>
+      <c r="B90">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1961</v>
+      </c>
+      <c r="B91">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1962</v>
+      </c>
+      <c r="B92">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1963</v>
+      </c>
+      <c r="B93">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1964</v>
+      </c>
+      <c r="B94">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1965</v>
+      </c>
+      <c r="B95">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1966</v>
+      </c>
+      <c r="B96">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1967</v>
+      </c>
+      <c r="B97">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1968</v>
+      </c>
+      <c r="B98">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1969</v>
+      </c>
+      <c r="B99">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1970</v>
+      </c>
+      <c r="B100">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1971</v>
+      </c>
+      <c r="B101">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1972</v>
+      </c>
+      <c r="B102">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1973</v>
+      </c>
+      <c r="B103">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1974</v>
+      </c>
+      <c r="B104">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1975</v>
+      </c>
+      <c r="B105">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1976</v>
+      </c>
+      <c r="B106">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1977</v>
+      </c>
+      <c r="B107">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1978</v>
+      </c>
+      <c r="B108">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1979</v>
+      </c>
+      <c r="B109">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1980</v>
+      </c>
+      <c r="B110">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1981</v>
+      </c>
+      <c r="B111">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1982</v>
+      </c>
+      <c r="B112">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1983</v>
+      </c>
+      <c r="B113">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1984</v>
+      </c>
+      <c r="B114">
+        <v>1429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>